--- a/Data_Architecture/Data Tables 280824.xlsx
+++ b/Data_Architecture/Data Tables 280824.xlsx
@@ -42,6 +42,42 @@
     <t>Core Module Table</t>
   </si>
   <si>
+    <t>promptoutputs</t>
+  </si>
+  <si>
+    <t>Prompt outputs</t>
+  </si>
+  <si>
+    <t>customgptlibraries</t>
+  </si>
+  <si>
+    <t>Custom GPT libraries</t>
+  </si>
+  <si>
+    <t>Custom Table</t>
+  </si>
+  <si>
+    <t>customgptplanner</t>
+  </si>
+  <si>
+    <t>Custom GPT planner</t>
+  </si>
+  <si>
+    <t>scrapingurls</t>
+  </si>
+  <si>
+    <t>Scrapingurls</t>
+  </si>
+  <si>
+    <t>General Table</t>
+  </si>
+  <si>
+    <t>third_party_gpts</t>
+  </si>
+  <si>
+    <t>Third Party Gpts</t>
+  </si>
+  <si>
     <t>custom_gpts_accessui_join</t>
   </si>
   <si>
@@ -189,27 +225,393 @@
     <t>Use-cases</t>
   </si>
   <si>
-    <t>customgptlibraries</t>
-  </si>
-  <si>
-    <t>Custom GPT libraries</t>
-  </si>
-  <si>
-    <t>Custom Table</t>
-  </si>
-  <si>
-    <t>customgptplanner</t>
-  </si>
-  <si>
-    <t>Custom GPT planner</t>
+    <t>promptlibrary_custom_gpts_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and custom GPTs</t>
+  </si>
+  <si>
+    <t>Prompt library</t>
+  </si>
+  <si>
+    <t>promptlibrary_gpt_cats_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and categories lookup</t>
+  </si>
+  <si>
+    <t>GPT categories</t>
+  </si>
+  <si>
+    <t>promptlibrary_gpt_tags_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and tags lookup</t>
+  </si>
+  <si>
+    <t>promptlibrary_prompt_complexity_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt complexity lookup</t>
+  </si>
+  <si>
+    <t>Prompt complexity level</t>
+  </si>
+  <si>
+    <t>promptlibrary_prompt_engineering_techniques_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt engineering techniques lookup</t>
+  </si>
+  <si>
+    <t>Prompt eng techniques</t>
+  </si>
+  <si>
+    <t>promptlibrary_prompt_sources_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt sources lookup</t>
+  </si>
+  <si>
+    <t>Prompt source</t>
+  </si>
+  <si>
+    <t>promptlibrary_prompt_storage_locations_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt storage locations lookup</t>
+  </si>
+  <si>
+    <t>Prompt storage location</t>
+  </si>
+  <si>
+    <t>promptlibrary_promptoutputs_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt outputs</t>
+  </si>
+  <si>
+    <t>promptlibrary_prompttype_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt type lookup</t>
+  </si>
+  <si>
+    <t>Prompt type</t>
+  </si>
+  <si>
+    <t>promptlibrary_promptversion_join</t>
+  </si>
+  <si>
+    <t>Join table between prompt library and prompt version lookup</t>
+  </si>
+  <si>
+    <t>Prompt version</t>
+  </si>
+  <si>
+    <t>promptoutputs_accessui_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and access UI lookup table</t>
+  </si>
+  <si>
+    <t>Access UI</t>
+  </si>
+  <si>
+    <t>promptoutputs_accuracy_levels_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and accuracy level lookup table</t>
+  </si>
+  <si>
+    <t>Accuracy Level</t>
+  </si>
+  <si>
+    <t>promptoutputs_actionability_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and actionability levels lookup table</t>
+  </si>
+  <si>
+    <t>Actionability</t>
+  </si>
+  <si>
+    <t>promptoutputs_custom_gpts_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and custom GPTs</t>
+  </si>
+  <si>
+    <t>promptoutputs_data_sensitivity_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and data sensitivity level lookup table</t>
+  </si>
+  <si>
+    <t>Data sensitivity level</t>
+  </si>
+  <si>
+    <t>promptoutputs_data_sizes_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and data size lookup table</t>
+  </si>
+  <si>
+    <t>Data size level</t>
+  </si>
+  <si>
+    <t>promptoutputs_data_types_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and data types lookup table</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>promptoutputs_file_formats_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and file formats lookup table</t>
+  </si>
+  <si>
+    <t>File format</t>
+  </si>
+  <si>
+    <t>promptoutputs_follow_up_activities_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and follow up activities lookup table</t>
+  </si>
+  <si>
+    <t>Follow up activities</t>
+  </si>
+  <si>
+    <t>promptoutputs_gpt_cats_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and GPT categories lookup</t>
+  </si>
+  <si>
+    <t>promptoutputs_industries_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and short industries list lookup</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>promptoutputs_knowledge_types_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and knowledge types lookup table</t>
+  </si>
+  <si>
+    <t>Knowledge type</t>
+  </si>
+  <si>
+    <t>promptoutputs_large_language_models_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and LLMs lookup table</t>
+  </si>
+  <si>
+    <t>LLM list</t>
+  </si>
+  <si>
+    <t>promptoutputs_mdconversionstatus_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and markdown conversion status lookup</t>
+  </si>
+  <si>
+    <t>Markdown conversion status</t>
+  </si>
+  <si>
+    <t>promptoutputs_output_cats_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and output categories lookup</t>
+  </si>
+  <si>
+    <t>Output categories</t>
+  </si>
+  <si>
+    <t>promptoutputs_output_formats_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and output formats lookup</t>
+  </si>
+  <si>
+    <t>Output formats</t>
+  </si>
+  <si>
+    <t>promptoutputs_output_types_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and output types lookup</t>
+  </si>
+  <si>
+    <t>Output types</t>
+  </si>
+  <si>
+    <t>promptoutputs_outputlanguages_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and language lookup</t>
+  </si>
+  <si>
+    <t>Output language</t>
+  </si>
+  <si>
+    <t>promptoutputs_outputtypes_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and output types lookup redundant</t>
+  </si>
+  <si>
+    <t>promptoutputs_project_tags_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and project tags lookup</t>
+  </si>
+  <si>
+    <t>Project tag</t>
+  </si>
+  <si>
+    <t>promptoutputs_prompt_actions_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and post prompt actions lookup</t>
+  </si>
+  <si>
+    <t>Prompt actions</t>
+  </si>
+  <si>
+    <t>promptoutputs_promptlibrary_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and prompt library</t>
+  </si>
+  <si>
+    <t>promptoutputs_reading_levels_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and reading levels lookup</t>
+  </si>
+  <si>
+    <t>Reading level</t>
+  </si>
+  <si>
+    <t>promptoutputs_reference_sources_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and reference sources lookup</t>
+  </si>
+  <si>
+    <t>Reference sources</t>
+  </si>
+  <si>
+    <t>promptoutputs_retentionplan_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and data retention plan lookup</t>
+  </si>
+  <si>
+    <t>Data retention plan</t>
+  </si>
+  <si>
+    <t>promptoutputs_reviewpriority_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and review priority lookup</t>
+  </si>
+  <si>
+    <t>Review priority</t>
+  </si>
+  <si>
+    <t>promptoutputs_reviewstatus_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and review status lookup</t>
+  </si>
+  <si>
+    <t>Review status</t>
+  </si>
+  <si>
+    <t>promptoutputs_sentiment_types_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and prompt sentiment lookup</t>
+  </si>
+  <si>
+    <t>Sentiment type</t>
+  </si>
+  <si>
+    <t>promptoutputs_target_audiences_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and target audience lookup</t>
+  </si>
+  <si>
+    <t>Target audience</t>
+  </si>
+  <si>
+    <t>promptoutputs_urgency_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and urgeny level lookup</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>promptoutputs_use_cases_join</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and use cases</t>
+  </si>
+  <si>
+    <t>promptoutputs_tax_prompt_actions</t>
+  </si>
+  <si>
+    <t>Join table between promp outputs and prompt actions taxonomy</t>
+  </si>
+  <si>
+    <t>rel_custom_gpts_customgptlibraries</t>
+  </si>
+  <si>
+    <t>Gpts Customgptlibraries</t>
+  </si>
+  <si>
+    <t>rel_custom_gpts_tax_gpt_cats</t>
+  </si>
+  <si>
+    <t>Gpts Gpt Cats</t>
+  </si>
+  <si>
+    <t>rel_custom_gpts_tax_gpt_tags</t>
+  </si>
+  <si>
+    <t>Gpts Gpt Tags</t>
+  </si>
+  <si>
+    <t>rel_promptoutputs_tax_project_tags</t>
+  </si>
+  <si>
+    <t>Promptproject Tags</t>
+  </si>
+  <si>
+    <t>tax_gpt_cats</t>
+  </si>
+  <si>
+    <t>Gpt Cats</t>
   </si>
   <si>
     <t>lookup_accessui</t>
   </si>
   <si>
-    <t>Access UI</t>
-  </si>
-  <si>
     <t>Lookup Table</t>
   </si>
   <si>
@@ -222,9 +624,6 @@
     <t>lookup_actionability</t>
   </si>
   <si>
-    <t>Actionability</t>
-  </si>
-  <si>
     <t>lookup_automation_levels</t>
   </si>
   <si>
@@ -570,9 +969,6 @@
     <t>lookup_urgency</t>
   </si>
   <si>
-    <t>Urgency</t>
-  </si>
-  <si>
     <t>lookup_user_feedback_types</t>
   </si>
   <si>
@@ -600,411 +996,21 @@
     <t>Prompt Table</t>
   </si>
   <si>
-    <t>promptlibrary_custom_gpts_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and custom GPTs</t>
-  </si>
-  <si>
-    <t>Prompt library</t>
-  </si>
-  <si>
-    <t>promptlibrary_gpt_cats_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and categories lookup</t>
-  </si>
-  <si>
-    <t>GPT categories</t>
-  </si>
-  <si>
-    <t>promptlibrary_gpt_tags_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and tags lookup</t>
-  </si>
-  <si>
-    <t>promptlibrary_prompt_complexity_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt complexity lookup</t>
-  </si>
-  <si>
-    <t>Prompt complexity level</t>
-  </si>
-  <si>
-    <t>promptlibrary_prompt_engineering_techniques_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt engineering techniques lookup</t>
-  </si>
-  <si>
-    <t>Prompt eng techniques</t>
-  </si>
-  <si>
-    <t>promptlibrary_prompt_sources_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt sources lookup</t>
-  </si>
-  <si>
-    <t>Prompt source</t>
-  </si>
-  <si>
-    <t>promptlibrary_prompt_storage_locations_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt storage locations lookup</t>
-  </si>
-  <si>
-    <t>Prompt storage location</t>
-  </si>
-  <si>
-    <t>promptlibrary_promptoutputs_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt outputs</t>
-  </si>
-  <si>
-    <t>Prompt outputs</t>
-  </si>
-  <si>
-    <t>promptlibrary_prompttype_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt type lookup</t>
-  </si>
-  <si>
-    <t>Prompt type</t>
-  </si>
-  <si>
-    <t>promptlibrary_promptversion_join</t>
-  </si>
-  <si>
-    <t>Join table between prompt library and prompt version lookup</t>
-  </si>
-  <si>
-    <t>Prompt version</t>
-  </si>
-  <si>
-    <t>promptoutputs</t>
-  </si>
-  <si>
-    <t>promptoutputs_accessui_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and access UI lookup table</t>
-  </si>
-  <si>
-    <t>promptoutputs_accuracy_levels_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and accuracy level lookup table</t>
-  </si>
-  <si>
-    <t>Accuracy Level</t>
-  </si>
-  <si>
-    <t>promptoutputs_actionability_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and actionability levels lookup table</t>
-  </si>
-  <si>
-    <t>promptoutputs_custom_gpts_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and custom GPTs</t>
-  </si>
-  <si>
-    <t>promptoutputs_data_sensitivity_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and data sensitivity level lookup table</t>
-  </si>
-  <si>
-    <t>Data sensitivity level</t>
-  </si>
-  <si>
-    <t>promptoutputs_data_sizes_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and data size lookup table</t>
-  </si>
-  <si>
-    <t>Data size level</t>
-  </si>
-  <si>
-    <t>promptoutputs_data_types_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and data types lookup table</t>
-  </si>
-  <si>
-    <t>Data type</t>
-  </si>
-  <si>
-    <t>promptoutputs_file_formats_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and file formats lookup table</t>
-  </si>
-  <si>
-    <t>File format</t>
-  </si>
-  <si>
-    <t>promptoutputs_follow_up_activities_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and follow up activities lookup table</t>
-  </si>
-  <si>
-    <t>Follow up activities</t>
-  </si>
-  <si>
-    <t>promptoutputs_gpt_cats_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and GPT categories lookup</t>
-  </si>
-  <si>
-    <t>promptoutputs_industries_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and short industries list lookup</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>promptoutputs_knowledge_types_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and knowledge types lookup table</t>
-  </si>
-  <si>
-    <t>Knowledge type</t>
-  </si>
-  <si>
-    <t>promptoutputs_large_language_models_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and LLMs lookup table</t>
-  </si>
-  <si>
-    <t>LLM list</t>
-  </si>
-  <si>
-    <t>promptoutputs_mdconversionstatus_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and markdown conversion status lookup</t>
-  </si>
-  <si>
-    <t>Markdown conversion status</t>
-  </si>
-  <si>
-    <t>promptoutputs_output_cats_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and output categories lookup</t>
-  </si>
-  <si>
-    <t>Output categories</t>
-  </si>
-  <si>
-    <t>promptoutputs_output_formats_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and output formats lookup</t>
-  </si>
-  <si>
-    <t>Output formats</t>
-  </si>
-  <si>
-    <t>promptoutputs_output_types_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and output types lookup</t>
-  </si>
-  <si>
-    <t>Output types</t>
-  </si>
-  <si>
-    <t>promptoutputs_outputlanguages_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and language lookup</t>
-  </si>
-  <si>
-    <t>Output language</t>
-  </si>
-  <si>
-    <t>promptoutputs_outputtypes_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and output types lookup redundant</t>
-  </si>
-  <si>
-    <t>promptoutputs_project_tags_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and project tags lookup</t>
-  </si>
-  <si>
-    <t>Project tag</t>
-  </si>
-  <si>
-    <t>promptoutputs_prompt_actions_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and post prompt actions lookup</t>
-  </si>
-  <si>
-    <t>Prompt actions</t>
-  </si>
-  <si>
-    <t>promptoutputs_promptlibrary_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and prompt library</t>
-  </si>
-  <si>
-    <t>promptoutputs_reading_levels_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and reading levels lookup</t>
-  </si>
-  <si>
-    <t>Reading level</t>
-  </si>
-  <si>
-    <t>promptoutputs_reference_sources_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and reference sources lookup</t>
-  </si>
-  <si>
-    <t>Reference sources</t>
-  </si>
-  <si>
-    <t>promptoutputs_retentionplan_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and data retention plan lookup</t>
-  </si>
-  <si>
-    <t>Data retention plan</t>
-  </si>
-  <si>
-    <t>promptoutputs_reviewpriority_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and review priority lookup</t>
-  </si>
-  <si>
-    <t>Review priority</t>
-  </si>
-  <si>
-    <t>promptoutputs_reviewstatus_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and review status lookup</t>
-  </si>
-  <si>
-    <t>Review status</t>
-  </si>
-  <si>
-    <t>promptoutputs_sentiment_types_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and prompt sentiment lookup</t>
-  </si>
-  <si>
-    <t>Sentiment type</t>
-  </si>
-  <si>
-    <t>promptoutputs_target_audiences_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and target audience lookup</t>
-  </si>
-  <si>
-    <t>Target audience</t>
-  </si>
-  <si>
-    <t>promptoutputs_tax_prompt_actions</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and prompt actions taxonomy</t>
-  </si>
-  <si>
-    <t>Relation Table</t>
-  </si>
-  <si>
-    <t>promptoutputs_urgency_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and urgeny level lookup</t>
-  </si>
-  <si>
-    <t>promptoutputs_use_cases_join</t>
-  </si>
-  <si>
-    <t>Join table between promp outputs and use cases</t>
-  </si>
-  <si>
     <t>promptqueue</t>
   </si>
   <si>
     <t>Prompt queue</t>
   </si>
   <si>
-    <t>rel_custom_gpts_customgptlibraries</t>
-  </si>
-  <si>
-    <t>Gpts Customgptlibraries</t>
-  </si>
-  <si>
-    <t>rel_custom_gpts_tax_gpt_cats</t>
-  </si>
-  <si>
-    <t>Gpts Gpt Cats</t>
-  </si>
-  <si>
-    <t>rel_custom_gpts_tax_gpt_tags</t>
-  </si>
-  <si>
-    <t>Gpts Gpt Tags</t>
-  </si>
-  <si>
-    <t>rel_promptoutputs_tax_project_tags</t>
-  </si>
-  <si>
-    <t>Promptproject Tags</t>
-  </si>
-  <si>
-    <t>scrapingurls</t>
-  </si>
-  <si>
-    <t>Scrapingurls</t>
-  </si>
-  <si>
-    <t>General Table</t>
-  </si>
-  <si>
-    <t>tax_gpt_cats</t>
-  </si>
-  <si>
-    <t>Gpt Cats</t>
-  </si>
-  <si>
     <t>tax_gpt_models</t>
   </si>
   <si>
     <t>Gpt Models</t>
   </si>
   <si>
+    <t>Taxonomy Table</t>
+  </si>
+  <si>
     <t>tax_gpt_platforms</t>
   </si>
   <si>
@@ -1069,12 +1075,6 @@
   </si>
   <si>
     <t>Use Cases</t>
-  </si>
-  <si>
-    <t>third_party_gpts</t>
-  </si>
-  <si>
-    <t>Third Party Gpts</t>
   </si>
 </sst>
 </file>
@@ -1340,11 +1340,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.63"/>
-    <col customWidth="1" min="2" max="2" width="33.75"/>
+    <col customWidth="1" min="1" max="1" width="33.75"/>
+    <col customWidth="1" min="2" max="2" width="30.5"/>
     <col customWidth="1" min="3" max="3" width="15.38"/>
     <col customWidth="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" min="5" max="5" width="19.13"/>
+    <col customWidth="1" min="5" max="5" width="15.5"/>
     <col customWidth="1" min="6" max="6" width="29.63"/>
   </cols>
   <sheetData>
@@ -1368,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1389,2004 +1389,2014 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" hidden="1">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" hidden="1">
-      <c r="A20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" hidden="1">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" hidden="1">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" hidden="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="1" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="1" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="2"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>265</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="2"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="2"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="2"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127">
@@ -3396,17 +3406,11 @@
       <c r="B127" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128">
@@ -3416,18 +3420,14 @@
       <c r="B128" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="1" t="s">
         <v>313</v>
       </c>
@@ -3438,10 +3438,10 @@
       <c r="D129" s="2"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="1" t="s">
         <v>315</v>
       </c>
@@ -3452,108 +3452,108 @@
       <c r="D130" s="2"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="131" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="2"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="132" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="133" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="134" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="135" hidden="1">
-      <c r="A135" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="136" hidden="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="137" hidden="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="2"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="138" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" s="1" t="s">
         <v>332</v>
       </c>
@@ -3564,10 +3564,10 @@
       <c r="D138" s="2"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="139" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" s="1" t="s">
         <v>334</v>
       </c>
@@ -3578,10 +3578,10 @@
       <c r="D139" s="2"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" s="1" t="s">
         <v>336</v>
       </c>
@@ -3592,10 +3592,10 @@
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="141" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" s="1" t="s">
         <v>338</v>
       </c>
@@ -3606,10 +3606,10 @@
       <c r="D141" s="2"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" s="1" t="s">
         <v>340</v>
       </c>
@@ -3620,10 +3620,10 @@
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="143" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" s="1" t="s">
         <v>342</v>
       </c>
@@ -3634,10 +3634,10 @@
       <c r="D143" s="2"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="144" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" s="1" t="s">
         <v>344</v>
       </c>
@@ -3648,10 +3648,10 @@
       <c r="D144" s="2"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" s="1" t="s">
         <v>346</v>
       </c>
@@ -3662,10 +3662,10 @@
       <c r="D145" s="2"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="146" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" s="1" t="s">
         <v>348</v>
       </c>
@@ -3676,10 +3676,10 @@
       <c r="D146" s="2"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="147" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" s="1" t="s">
         <v>350</v>
       </c>
@@ -3690,10 +3690,10 @@
       <c r="D147" s="2"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" s="1" t="s">
         <v>352</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="D148" s="2"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149">
@@ -6265,11 +6265,9 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$148">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Join Table"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A1:F148">
+      <sortCondition ref="F1:F148"/>
+    </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data_Architecture/Data Tables 280824.xlsx
+++ b/Data_Architecture/Data Tables 280824.xlsx
@@ -1108,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1117,9 +1117,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3707,2562 +3704,6 @@
         <v>331</v>
       </c>
     </row>
-    <row r="149">
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150">
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151">
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152">
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153">
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154">
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155">
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156">
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157">
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158">
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159">
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160">
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161">
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162">
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163">
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164">
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165">
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166">
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167">
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168">
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169">
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170">
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171">
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172">
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173">
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174">
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175">
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176">
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177">
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178">
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179">
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180">
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181">
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182">
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183">
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184">
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185">
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186">
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187">
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188">
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189">
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190">
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191">
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192">
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193">
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194">
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195">
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196">
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197">
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198">
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199">
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200">
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201">
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202">
-      <c r="D202" s="3"/>
-    </row>
-    <row r="203">
-      <c r="D203" s="3"/>
-    </row>
-    <row r="204">
-      <c r="D204" s="3"/>
-    </row>
-    <row r="205">
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206">
-      <c r="D206" s="3"/>
-    </row>
-    <row r="207">
-      <c r="D207" s="3"/>
-    </row>
-    <row r="208">
-      <c r="D208" s="3"/>
-    </row>
-    <row r="209">
-      <c r="D209" s="3"/>
-    </row>
-    <row r="210">
-      <c r="D210" s="3"/>
-    </row>
-    <row r="211">
-      <c r="D211" s="3"/>
-    </row>
-    <row r="212">
-      <c r="D212" s="3"/>
-    </row>
-    <row r="213">
-      <c r="D213" s="3"/>
-    </row>
-    <row r="214">
-      <c r="D214" s="3"/>
-    </row>
-    <row r="215">
-      <c r="D215" s="3"/>
-    </row>
-    <row r="216">
-      <c r="D216" s="3"/>
-    </row>
-    <row r="217">
-      <c r="D217" s="3"/>
-    </row>
-    <row r="218">
-      <c r="D218" s="3"/>
-    </row>
-    <row r="219">
-      <c r="D219" s="3"/>
-    </row>
-    <row r="220">
-      <c r="D220" s="3"/>
-    </row>
-    <row r="221">
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222">
-      <c r="D222" s="3"/>
-    </row>
-    <row r="223">
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224">
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225">
-      <c r="D225" s="3"/>
-    </row>
-    <row r="226">
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227">
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228">
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229">
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230">
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231">
-      <c r="D231" s="3"/>
-    </row>
-    <row r="232">
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233">
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234">
-      <c r="D234" s="3"/>
-    </row>
-    <row r="235">
-      <c r="D235" s="3"/>
-    </row>
-    <row r="236">
-      <c r="D236" s="3"/>
-    </row>
-    <row r="237">
-      <c r="D237" s="3"/>
-    </row>
-    <row r="238">
-      <c r="D238" s="3"/>
-    </row>
-    <row r="239">
-      <c r="D239" s="3"/>
-    </row>
-    <row r="240">
-      <c r="D240" s="3"/>
-    </row>
-    <row r="241">
-      <c r="D241" s="3"/>
-    </row>
-    <row r="242">
-      <c r="D242" s="3"/>
-    </row>
-    <row r="243">
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244">
-      <c r="D244" s="3"/>
-    </row>
-    <row r="245">
-      <c r="D245" s="3"/>
-    </row>
-    <row r="246">
-      <c r="D246" s="3"/>
-    </row>
-    <row r="247">
-      <c r="D247" s="3"/>
-    </row>
-    <row r="248">
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249">
-      <c r="D249" s="3"/>
-    </row>
-    <row r="250">
-      <c r="D250" s="3"/>
-    </row>
-    <row r="251">
-      <c r="D251" s="3"/>
-    </row>
-    <row r="252">
-      <c r="D252" s="3"/>
-    </row>
-    <row r="253">
-      <c r="D253" s="3"/>
-    </row>
-    <row r="254">
-      <c r="D254" s="3"/>
-    </row>
-    <row r="255">
-      <c r="D255" s="3"/>
-    </row>
-    <row r="256">
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257">
-      <c r="D257" s="3"/>
-    </row>
-    <row r="258">
-      <c r="D258" s="3"/>
-    </row>
-    <row r="259">
-      <c r="D259" s="3"/>
-    </row>
-    <row r="260">
-      <c r="D260" s="3"/>
-    </row>
-    <row r="261">
-      <c r="D261" s="3"/>
-    </row>
-    <row r="262">
-      <c r="D262" s="3"/>
-    </row>
-    <row r="263">
-      <c r="D263" s="3"/>
-    </row>
-    <row r="264">
-      <c r="D264" s="3"/>
-    </row>
-    <row r="265">
-      <c r="D265" s="3"/>
-    </row>
-    <row r="266">
-      <c r="D266" s="3"/>
-    </row>
-    <row r="267">
-      <c r="D267" s="3"/>
-    </row>
-    <row r="268">
-      <c r="D268" s="3"/>
-    </row>
-    <row r="269">
-      <c r="D269" s="3"/>
-    </row>
-    <row r="270">
-      <c r="D270" s="3"/>
-    </row>
-    <row r="271">
-      <c r="D271" s="3"/>
-    </row>
-    <row r="272">
-      <c r="D272" s="3"/>
-    </row>
-    <row r="273">
-      <c r="D273" s="3"/>
-    </row>
-    <row r="274">
-      <c r="D274" s="3"/>
-    </row>
-    <row r="275">
-      <c r="D275" s="3"/>
-    </row>
-    <row r="276">
-      <c r="D276" s="3"/>
-    </row>
-    <row r="277">
-      <c r="D277" s="3"/>
-    </row>
-    <row r="278">
-      <c r="D278" s="3"/>
-    </row>
-    <row r="279">
-      <c r="D279" s="3"/>
-    </row>
-    <row r="280">
-      <c r="D280" s="3"/>
-    </row>
-    <row r="281">
-      <c r="D281" s="3"/>
-    </row>
-    <row r="282">
-      <c r="D282" s="3"/>
-    </row>
-    <row r="283">
-      <c r="D283" s="3"/>
-    </row>
-    <row r="284">
-      <c r="D284" s="3"/>
-    </row>
-    <row r="285">
-      <c r="D285" s="3"/>
-    </row>
-    <row r="286">
-      <c r="D286" s="3"/>
-    </row>
-    <row r="287">
-      <c r="D287" s="3"/>
-    </row>
-    <row r="288">
-      <c r="D288" s="3"/>
-    </row>
-    <row r="289">
-      <c r="D289" s="3"/>
-    </row>
-    <row r="290">
-      <c r="D290" s="3"/>
-    </row>
-    <row r="291">
-      <c r="D291" s="3"/>
-    </row>
-    <row r="292">
-      <c r="D292" s="3"/>
-    </row>
-    <row r="293">
-      <c r="D293" s="3"/>
-    </row>
-    <row r="294">
-      <c r="D294" s="3"/>
-    </row>
-    <row r="295">
-      <c r="D295" s="3"/>
-    </row>
-    <row r="296">
-      <c r="D296" s="3"/>
-    </row>
-    <row r="297">
-      <c r="D297" s="3"/>
-    </row>
-    <row r="298">
-      <c r="D298" s="3"/>
-    </row>
-    <row r="299">
-      <c r="D299" s="3"/>
-    </row>
-    <row r="300">
-      <c r="D300" s="3"/>
-    </row>
-    <row r="301">
-      <c r="D301" s="3"/>
-    </row>
-    <row r="302">
-      <c r="D302" s="3"/>
-    </row>
-    <row r="303">
-      <c r="D303" s="3"/>
-    </row>
-    <row r="304">
-      <c r="D304" s="3"/>
-    </row>
-    <row r="305">
-      <c r="D305" s="3"/>
-    </row>
-    <row r="306">
-      <c r="D306" s="3"/>
-    </row>
-    <row r="307">
-      <c r="D307" s="3"/>
-    </row>
-    <row r="308">
-      <c r="D308" s="3"/>
-    </row>
-    <row r="309">
-      <c r="D309" s="3"/>
-    </row>
-    <row r="310">
-      <c r="D310" s="3"/>
-    </row>
-    <row r="311">
-      <c r="D311" s="3"/>
-    </row>
-    <row r="312">
-      <c r="D312" s="3"/>
-    </row>
-    <row r="313">
-      <c r="D313" s="3"/>
-    </row>
-    <row r="314">
-      <c r="D314" s="3"/>
-    </row>
-    <row r="315">
-      <c r="D315" s="3"/>
-    </row>
-    <row r="316">
-      <c r="D316" s="3"/>
-    </row>
-    <row r="317">
-      <c r="D317" s="3"/>
-    </row>
-    <row r="318">
-      <c r="D318" s="3"/>
-    </row>
-    <row r="319">
-      <c r="D319" s="3"/>
-    </row>
-    <row r="320">
-      <c r="D320" s="3"/>
-    </row>
-    <row r="321">
-      <c r="D321" s="3"/>
-    </row>
-    <row r="322">
-      <c r="D322" s="3"/>
-    </row>
-    <row r="323">
-      <c r="D323" s="3"/>
-    </row>
-    <row r="324">
-      <c r="D324" s="3"/>
-    </row>
-    <row r="325">
-      <c r="D325" s="3"/>
-    </row>
-    <row r="326">
-      <c r="D326" s="3"/>
-    </row>
-    <row r="327">
-      <c r="D327" s="3"/>
-    </row>
-    <row r="328">
-      <c r="D328" s="3"/>
-    </row>
-    <row r="329">
-      <c r="D329" s="3"/>
-    </row>
-    <row r="330">
-      <c r="D330" s="3"/>
-    </row>
-    <row r="331">
-      <c r="D331" s="3"/>
-    </row>
-    <row r="332">
-      <c r="D332" s="3"/>
-    </row>
-    <row r="333">
-      <c r="D333" s="3"/>
-    </row>
-    <row r="334">
-      <c r="D334" s="3"/>
-    </row>
-    <row r="335">
-      <c r="D335" s="3"/>
-    </row>
-    <row r="336">
-      <c r="D336" s="3"/>
-    </row>
-    <row r="337">
-      <c r="D337" s="3"/>
-    </row>
-    <row r="338">
-      <c r="D338" s="3"/>
-    </row>
-    <row r="339">
-      <c r="D339" s="3"/>
-    </row>
-    <row r="340">
-      <c r="D340" s="3"/>
-    </row>
-    <row r="341">
-      <c r="D341" s="3"/>
-    </row>
-    <row r="342">
-      <c r="D342" s="3"/>
-    </row>
-    <row r="343">
-      <c r="D343" s="3"/>
-    </row>
-    <row r="344">
-      <c r="D344" s="3"/>
-    </row>
-    <row r="345">
-      <c r="D345" s="3"/>
-    </row>
-    <row r="346">
-      <c r="D346" s="3"/>
-    </row>
-    <row r="347">
-      <c r="D347" s="3"/>
-    </row>
-    <row r="348">
-      <c r="D348" s="3"/>
-    </row>
-    <row r="349">
-      <c r="D349" s="3"/>
-    </row>
-    <row r="350">
-      <c r="D350" s="3"/>
-    </row>
-    <row r="351">
-      <c r="D351" s="3"/>
-    </row>
-    <row r="352">
-      <c r="D352" s="3"/>
-    </row>
-    <row r="353">
-      <c r="D353" s="3"/>
-    </row>
-    <row r="354">
-      <c r="D354" s="3"/>
-    </row>
-    <row r="355">
-      <c r="D355" s="3"/>
-    </row>
-    <row r="356">
-      <c r="D356" s="3"/>
-    </row>
-    <row r="357">
-      <c r="D357" s="3"/>
-    </row>
-    <row r="358">
-      <c r="D358" s="3"/>
-    </row>
-    <row r="359">
-      <c r="D359" s="3"/>
-    </row>
-    <row r="360">
-      <c r="D360" s="3"/>
-    </row>
-    <row r="361">
-      <c r="D361" s="3"/>
-    </row>
-    <row r="362">
-      <c r="D362" s="3"/>
-    </row>
-    <row r="363">
-      <c r="D363" s="3"/>
-    </row>
-    <row r="364">
-      <c r="D364" s="3"/>
-    </row>
-    <row r="365">
-      <c r="D365" s="3"/>
-    </row>
-    <row r="366">
-      <c r="D366" s="3"/>
-    </row>
-    <row r="367">
-      <c r="D367" s="3"/>
-    </row>
-    <row r="368">
-      <c r="D368" s="3"/>
-    </row>
-    <row r="369">
-      <c r="D369" s="3"/>
-    </row>
-    <row r="370">
-      <c r="D370" s="3"/>
-    </row>
-    <row r="371">
-      <c r="D371" s="3"/>
-    </row>
-    <row r="372">
-      <c r="D372" s="3"/>
-    </row>
-    <row r="373">
-      <c r="D373" s="3"/>
-    </row>
-    <row r="374">
-      <c r="D374" s="3"/>
-    </row>
-    <row r="375">
-      <c r="D375" s="3"/>
-    </row>
-    <row r="376">
-      <c r="D376" s="3"/>
-    </row>
-    <row r="377">
-      <c r="D377" s="3"/>
-    </row>
-    <row r="378">
-      <c r="D378" s="3"/>
-    </row>
-    <row r="379">
-      <c r="D379" s="3"/>
-    </row>
-    <row r="380">
-      <c r="D380" s="3"/>
-    </row>
-    <row r="381">
-      <c r="D381" s="3"/>
-    </row>
-    <row r="382">
-      <c r="D382" s="3"/>
-    </row>
-    <row r="383">
-      <c r="D383" s="3"/>
-    </row>
-    <row r="384">
-      <c r="D384" s="3"/>
-    </row>
-    <row r="385">
-      <c r="D385" s="3"/>
-    </row>
-    <row r="386">
-      <c r="D386" s="3"/>
-    </row>
-    <row r="387">
-      <c r="D387" s="3"/>
-    </row>
-    <row r="388">
-      <c r="D388" s="3"/>
-    </row>
-    <row r="389">
-      <c r="D389" s="3"/>
-    </row>
-    <row r="390">
-      <c r="D390" s="3"/>
-    </row>
-    <row r="391">
-      <c r="D391" s="3"/>
-    </row>
-    <row r="392">
-      <c r="D392" s="3"/>
-    </row>
-    <row r="393">
-      <c r="D393" s="3"/>
-    </row>
-    <row r="394">
-      <c r="D394" s="3"/>
-    </row>
-    <row r="395">
-      <c r="D395" s="3"/>
-    </row>
-    <row r="396">
-      <c r="D396" s="3"/>
-    </row>
-    <row r="397">
-      <c r="D397" s="3"/>
-    </row>
-    <row r="398">
-      <c r="D398" s="3"/>
-    </row>
-    <row r="399">
-      <c r="D399" s="3"/>
-    </row>
-    <row r="400">
-      <c r="D400" s="3"/>
-    </row>
-    <row r="401">
-      <c r="D401" s="3"/>
-    </row>
-    <row r="402">
-      <c r="D402" s="3"/>
-    </row>
-    <row r="403">
-      <c r="D403" s="3"/>
-    </row>
-    <row r="404">
-      <c r="D404" s="3"/>
-    </row>
-    <row r="405">
-      <c r="D405" s="3"/>
-    </row>
-    <row r="406">
-      <c r="D406" s="3"/>
-    </row>
-    <row r="407">
-      <c r="D407" s="3"/>
-    </row>
-    <row r="408">
-      <c r="D408" s="3"/>
-    </row>
-    <row r="409">
-      <c r="D409" s="3"/>
-    </row>
-    <row r="410">
-      <c r="D410" s="3"/>
-    </row>
-    <row r="411">
-      <c r="D411" s="3"/>
-    </row>
-    <row r="412">
-      <c r="D412" s="3"/>
-    </row>
-    <row r="413">
-      <c r="D413" s="3"/>
-    </row>
-    <row r="414">
-      <c r="D414" s="3"/>
-    </row>
-    <row r="415">
-      <c r="D415" s="3"/>
-    </row>
-    <row r="416">
-      <c r="D416" s="3"/>
-    </row>
-    <row r="417">
-      <c r="D417" s="3"/>
-    </row>
-    <row r="418">
-      <c r="D418" s="3"/>
-    </row>
-    <row r="419">
-      <c r="D419" s="3"/>
-    </row>
-    <row r="420">
-      <c r="D420" s="3"/>
-    </row>
-    <row r="421">
-      <c r="D421" s="3"/>
-    </row>
-    <row r="422">
-      <c r="D422" s="3"/>
-    </row>
-    <row r="423">
-      <c r="D423" s="3"/>
-    </row>
-    <row r="424">
-      <c r="D424" s="3"/>
-    </row>
-    <row r="425">
-      <c r="D425" s="3"/>
-    </row>
-    <row r="426">
-      <c r="D426" s="3"/>
-    </row>
-    <row r="427">
-      <c r="D427" s="3"/>
-    </row>
-    <row r="428">
-      <c r="D428" s="3"/>
-    </row>
-    <row r="429">
-      <c r="D429" s="3"/>
-    </row>
-    <row r="430">
-      <c r="D430" s="3"/>
-    </row>
-    <row r="431">
-      <c r="D431" s="3"/>
-    </row>
-    <row r="432">
-      <c r="D432" s="3"/>
-    </row>
-    <row r="433">
-      <c r="D433" s="3"/>
-    </row>
-    <row r="434">
-      <c r="D434" s="3"/>
-    </row>
-    <row r="435">
-      <c r="D435" s="3"/>
-    </row>
-    <row r="436">
-      <c r="D436" s="3"/>
-    </row>
-    <row r="437">
-      <c r="D437" s="3"/>
-    </row>
-    <row r="438">
-      <c r="D438" s="3"/>
-    </row>
-    <row r="439">
-      <c r="D439" s="3"/>
-    </row>
-    <row r="440">
-      <c r="D440" s="3"/>
-    </row>
-    <row r="441">
-      <c r="D441" s="3"/>
-    </row>
-    <row r="442">
-      <c r="D442" s="3"/>
-    </row>
-    <row r="443">
-      <c r="D443" s="3"/>
-    </row>
-    <row r="444">
-      <c r="D444" s="3"/>
-    </row>
-    <row r="445">
-      <c r="D445" s="3"/>
-    </row>
-    <row r="446">
-      <c r="D446" s="3"/>
-    </row>
-    <row r="447">
-      <c r="D447" s="3"/>
-    </row>
-    <row r="448">
-      <c r="D448" s="3"/>
-    </row>
-    <row r="449">
-      <c r="D449" s="3"/>
-    </row>
-    <row r="450">
-      <c r="D450" s="3"/>
-    </row>
-    <row r="451">
-      <c r="D451" s="3"/>
-    </row>
-    <row r="452">
-      <c r="D452" s="3"/>
-    </row>
-    <row r="453">
-      <c r="D453" s="3"/>
-    </row>
-    <row r="454">
-      <c r="D454" s="3"/>
-    </row>
-    <row r="455">
-      <c r="D455" s="3"/>
-    </row>
-    <row r="456">
-      <c r="D456" s="3"/>
-    </row>
-    <row r="457">
-      <c r="D457" s="3"/>
-    </row>
-    <row r="458">
-      <c r="D458" s="3"/>
-    </row>
-    <row r="459">
-      <c r="D459" s="3"/>
-    </row>
-    <row r="460">
-      <c r="D460" s="3"/>
-    </row>
-    <row r="461">
-      <c r="D461" s="3"/>
-    </row>
-    <row r="462">
-      <c r="D462" s="3"/>
-    </row>
-    <row r="463">
-      <c r="D463" s="3"/>
-    </row>
-    <row r="464">
-      <c r="D464" s="3"/>
-    </row>
-    <row r="465">
-      <c r="D465" s="3"/>
-    </row>
-    <row r="466">
-      <c r="D466" s="3"/>
-    </row>
-    <row r="467">
-      <c r="D467" s="3"/>
-    </row>
-    <row r="468">
-      <c r="D468" s="3"/>
-    </row>
-    <row r="469">
-      <c r="D469" s="3"/>
-    </row>
-    <row r="470">
-      <c r="D470" s="3"/>
-    </row>
-    <row r="471">
-      <c r="D471" s="3"/>
-    </row>
-    <row r="472">
-      <c r="D472" s="3"/>
-    </row>
-    <row r="473">
-      <c r="D473" s="3"/>
-    </row>
-    <row r="474">
-      <c r="D474" s="3"/>
-    </row>
-    <row r="475">
-      <c r="D475" s="3"/>
-    </row>
-    <row r="476">
-      <c r="D476" s="3"/>
-    </row>
-    <row r="477">
-      <c r="D477" s="3"/>
-    </row>
-    <row r="478">
-      <c r="D478" s="3"/>
-    </row>
-    <row r="479">
-      <c r="D479" s="3"/>
-    </row>
-    <row r="480">
-      <c r="D480" s="3"/>
-    </row>
-    <row r="481">
-      <c r="D481" s="3"/>
-    </row>
-    <row r="482">
-      <c r="D482" s="3"/>
-    </row>
-    <row r="483">
-      <c r="D483" s="3"/>
-    </row>
-    <row r="484">
-      <c r="D484" s="3"/>
-    </row>
-    <row r="485">
-      <c r="D485" s="3"/>
-    </row>
-    <row r="486">
-      <c r="D486" s="3"/>
-    </row>
-    <row r="487">
-      <c r="D487" s="3"/>
-    </row>
-    <row r="488">
-      <c r="D488" s="3"/>
-    </row>
-    <row r="489">
-      <c r="D489" s="3"/>
-    </row>
-    <row r="490">
-      <c r="D490" s="3"/>
-    </row>
-    <row r="491">
-      <c r="D491" s="3"/>
-    </row>
-    <row r="492">
-      <c r="D492" s="3"/>
-    </row>
-    <row r="493">
-      <c r="D493" s="3"/>
-    </row>
-    <row r="494">
-      <c r="D494" s="3"/>
-    </row>
-    <row r="495">
-      <c r="D495" s="3"/>
-    </row>
-    <row r="496">
-      <c r="D496" s="3"/>
-    </row>
-    <row r="497">
-      <c r="D497" s="3"/>
-    </row>
-    <row r="498">
-      <c r="D498" s="3"/>
-    </row>
-    <row r="499">
-      <c r="D499" s="3"/>
-    </row>
-    <row r="500">
-      <c r="D500" s="3"/>
-    </row>
-    <row r="501">
-      <c r="D501" s="3"/>
-    </row>
-    <row r="502">
-      <c r="D502" s="3"/>
-    </row>
-    <row r="503">
-      <c r="D503" s="3"/>
-    </row>
-    <row r="504">
-      <c r="D504" s="3"/>
-    </row>
-    <row r="505">
-      <c r="D505" s="3"/>
-    </row>
-    <row r="506">
-      <c r="D506" s="3"/>
-    </row>
-    <row r="507">
-      <c r="D507" s="3"/>
-    </row>
-    <row r="508">
-      <c r="D508" s="3"/>
-    </row>
-    <row r="509">
-      <c r="D509" s="3"/>
-    </row>
-    <row r="510">
-      <c r="D510" s="3"/>
-    </row>
-    <row r="511">
-      <c r="D511" s="3"/>
-    </row>
-    <row r="512">
-      <c r="D512" s="3"/>
-    </row>
-    <row r="513">
-      <c r="D513" s="3"/>
-    </row>
-    <row r="514">
-      <c r="D514" s="3"/>
-    </row>
-    <row r="515">
-      <c r="D515" s="3"/>
-    </row>
-    <row r="516">
-      <c r="D516" s="3"/>
-    </row>
-    <row r="517">
-      <c r="D517" s="3"/>
-    </row>
-    <row r="518">
-      <c r="D518" s="3"/>
-    </row>
-    <row r="519">
-      <c r="D519" s="3"/>
-    </row>
-    <row r="520">
-      <c r="D520" s="3"/>
-    </row>
-    <row r="521">
-      <c r="D521" s="3"/>
-    </row>
-    <row r="522">
-      <c r="D522" s="3"/>
-    </row>
-    <row r="523">
-      <c r="D523" s="3"/>
-    </row>
-    <row r="524">
-      <c r="D524" s="3"/>
-    </row>
-    <row r="525">
-      <c r="D525" s="3"/>
-    </row>
-    <row r="526">
-      <c r="D526" s="3"/>
-    </row>
-    <row r="527">
-      <c r="D527" s="3"/>
-    </row>
-    <row r="528">
-      <c r="D528" s="3"/>
-    </row>
-    <row r="529">
-      <c r="D529" s="3"/>
-    </row>
-    <row r="530">
-      <c r="D530" s="3"/>
-    </row>
-    <row r="531">
-      <c r="D531" s="3"/>
-    </row>
-    <row r="532">
-      <c r="D532" s="3"/>
-    </row>
-    <row r="533">
-      <c r="D533" s="3"/>
-    </row>
-    <row r="534">
-      <c r="D534" s="3"/>
-    </row>
-    <row r="535">
-      <c r="D535" s="3"/>
-    </row>
-    <row r="536">
-      <c r="D536" s="3"/>
-    </row>
-    <row r="537">
-      <c r="D537" s="3"/>
-    </row>
-    <row r="538">
-      <c r="D538" s="3"/>
-    </row>
-    <row r="539">
-      <c r="D539" s="3"/>
-    </row>
-    <row r="540">
-      <c r="D540" s="3"/>
-    </row>
-    <row r="541">
-      <c r="D541" s="3"/>
-    </row>
-    <row r="542">
-      <c r="D542" s="3"/>
-    </row>
-    <row r="543">
-      <c r="D543" s="3"/>
-    </row>
-    <row r="544">
-      <c r="D544" s="3"/>
-    </row>
-    <row r="545">
-      <c r="D545" s="3"/>
-    </row>
-    <row r="546">
-      <c r="D546" s="3"/>
-    </row>
-    <row r="547">
-      <c r="D547" s="3"/>
-    </row>
-    <row r="548">
-      <c r="D548" s="3"/>
-    </row>
-    <row r="549">
-      <c r="D549" s="3"/>
-    </row>
-    <row r="550">
-      <c r="D550" s="3"/>
-    </row>
-    <row r="551">
-      <c r="D551" s="3"/>
-    </row>
-    <row r="552">
-      <c r="D552" s="3"/>
-    </row>
-    <row r="553">
-      <c r="D553" s="3"/>
-    </row>
-    <row r="554">
-      <c r="D554" s="3"/>
-    </row>
-    <row r="555">
-      <c r="D555" s="3"/>
-    </row>
-    <row r="556">
-      <c r="D556" s="3"/>
-    </row>
-    <row r="557">
-      <c r="D557" s="3"/>
-    </row>
-    <row r="558">
-      <c r="D558" s="3"/>
-    </row>
-    <row r="559">
-      <c r="D559" s="3"/>
-    </row>
-    <row r="560">
-      <c r="D560" s="3"/>
-    </row>
-    <row r="561">
-      <c r="D561" s="3"/>
-    </row>
-    <row r="562">
-      <c r="D562" s="3"/>
-    </row>
-    <row r="563">
-      <c r="D563" s="3"/>
-    </row>
-    <row r="564">
-      <c r="D564" s="3"/>
-    </row>
-    <row r="565">
-      <c r="D565" s="3"/>
-    </row>
-    <row r="566">
-      <c r="D566" s="3"/>
-    </row>
-    <row r="567">
-      <c r="D567" s="3"/>
-    </row>
-    <row r="568">
-      <c r="D568" s="3"/>
-    </row>
-    <row r="569">
-      <c r="D569" s="3"/>
-    </row>
-    <row r="570">
-      <c r="D570" s="3"/>
-    </row>
-    <row r="571">
-      <c r="D571" s="3"/>
-    </row>
-    <row r="572">
-      <c r="D572" s="3"/>
-    </row>
-    <row r="573">
-      <c r="D573" s="3"/>
-    </row>
-    <row r="574">
-      <c r="D574" s="3"/>
-    </row>
-    <row r="575">
-      <c r="D575" s="3"/>
-    </row>
-    <row r="576">
-      <c r="D576" s="3"/>
-    </row>
-    <row r="577">
-      <c r="D577" s="3"/>
-    </row>
-    <row r="578">
-      <c r="D578" s="3"/>
-    </row>
-    <row r="579">
-      <c r="D579" s="3"/>
-    </row>
-    <row r="580">
-      <c r="D580" s="3"/>
-    </row>
-    <row r="581">
-      <c r="D581" s="3"/>
-    </row>
-    <row r="582">
-      <c r="D582" s="3"/>
-    </row>
-    <row r="583">
-      <c r="D583" s="3"/>
-    </row>
-    <row r="584">
-      <c r="D584" s="3"/>
-    </row>
-    <row r="585">
-      <c r="D585" s="3"/>
-    </row>
-    <row r="586">
-      <c r="D586" s="3"/>
-    </row>
-    <row r="587">
-      <c r="D587" s="3"/>
-    </row>
-    <row r="588">
-      <c r="D588" s="3"/>
-    </row>
-    <row r="589">
-      <c r="D589" s="3"/>
-    </row>
-    <row r="590">
-      <c r="D590" s="3"/>
-    </row>
-    <row r="591">
-      <c r="D591" s="3"/>
-    </row>
-    <row r="592">
-      <c r="D592" s="3"/>
-    </row>
-    <row r="593">
-      <c r="D593" s="3"/>
-    </row>
-    <row r="594">
-      <c r="D594" s="3"/>
-    </row>
-    <row r="595">
-      <c r="D595" s="3"/>
-    </row>
-    <row r="596">
-      <c r="D596" s="3"/>
-    </row>
-    <row r="597">
-      <c r="D597" s="3"/>
-    </row>
-    <row r="598">
-      <c r="D598" s="3"/>
-    </row>
-    <row r="599">
-      <c r="D599" s="3"/>
-    </row>
-    <row r="600">
-      <c r="D600" s="3"/>
-    </row>
-    <row r="601">
-      <c r="D601" s="3"/>
-    </row>
-    <row r="602">
-      <c r="D602" s="3"/>
-    </row>
-    <row r="603">
-      <c r="D603" s="3"/>
-    </row>
-    <row r="604">
-      <c r="D604" s="3"/>
-    </row>
-    <row r="605">
-      <c r="D605" s="3"/>
-    </row>
-    <row r="606">
-      <c r="D606" s="3"/>
-    </row>
-    <row r="607">
-      <c r="D607" s="3"/>
-    </row>
-    <row r="608">
-      <c r="D608" s="3"/>
-    </row>
-    <row r="609">
-      <c r="D609" s="3"/>
-    </row>
-    <row r="610">
-      <c r="D610" s="3"/>
-    </row>
-    <row r="611">
-      <c r="D611" s="3"/>
-    </row>
-    <row r="612">
-      <c r="D612" s="3"/>
-    </row>
-    <row r="613">
-      <c r="D613" s="3"/>
-    </row>
-    <row r="614">
-      <c r="D614" s="3"/>
-    </row>
-    <row r="615">
-      <c r="D615" s="3"/>
-    </row>
-    <row r="616">
-      <c r="D616" s="3"/>
-    </row>
-    <row r="617">
-      <c r="D617" s="3"/>
-    </row>
-    <row r="618">
-      <c r="D618" s="3"/>
-    </row>
-    <row r="619">
-      <c r="D619" s="3"/>
-    </row>
-    <row r="620">
-      <c r="D620" s="3"/>
-    </row>
-    <row r="621">
-      <c r="D621" s="3"/>
-    </row>
-    <row r="622">
-      <c r="D622" s="3"/>
-    </row>
-    <row r="623">
-      <c r="D623" s="3"/>
-    </row>
-    <row r="624">
-      <c r="D624" s="3"/>
-    </row>
-    <row r="625">
-      <c r="D625" s="3"/>
-    </row>
-    <row r="626">
-      <c r="D626" s="3"/>
-    </row>
-    <row r="627">
-      <c r="D627" s="3"/>
-    </row>
-    <row r="628">
-      <c r="D628" s="3"/>
-    </row>
-    <row r="629">
-      <c r="D629" s="3"/>
-    </row>
-    <row r="630">
-      <c r="D630" s="3"/>
-    </row>
-    <row r="631">
-      <c r="D631" s="3"/>
-    </row>
-    <row r="632">
-      <c r="D632" s="3"/>
-    </row>
-    <row r="633">
-      <c r="D633" s="3"/>
-    </row>
-    <row r="634">
-      <c r="D634" s="3"/>
-    </row>
-    <row r="635">
-      <c r="D635" s="3"/>
-    </row>
-    <row r="636">
-      <c r="D636" s="3"/>
-    </row>
-    <row r="637">
-      <c r="D637" s="3"/>
-    </row>
-    <row r="638">
-      <c r="D638" s="3"/>
-    </row>
-    <row r="639">
-      <c r="D639" s="3"/>
-    </row>
-    <row r="640">
-      <c r="D640" s="3"/>
-    </row>
-    <row r="641">
-      <c r="D641" s="3"/>
-    </row>
-    <row r="642">
-      <c r="D642" s="3"/>
-    </row>
-    <row r="643">
-      <c r="D643" s="3"/>
-    </row>
-    <row r="644">
-      <c r="D644" s="3"/>
-    </row>
-    <row r="645">
-      <c r="D645" s="3"/>
-    </row>
-    <row r="646">
-      <c r="D646" s="3"/>
-    </row>
-    <row r="647">
-      <c r="D647" s="3"/>
-    </row>
-    <row r="648">
-      <c r="D648" s="3"/>
-    </row>
-    <row r="649">
-      <c r="D649" s="3"/>
-    </row>
-    <row r="650">
-      <c r="D650" s="3"/>
-    </row>
-    <row r="651">
-      <c r="D651" s="3"/>
-    </row>
-    <row r="652">
-      <c r="D652" s="3"/>
-    </row>
-    <row r="653">
-      <c r="D653" s="3"/>
-    </row>
-    <row r="654">
-      <c r="D654" s="3"/>
-    </row>
-    <row r="655">
-      <c r="D655" s="3"/>
-    </row>
-    <row r="656">
-      <c r="D656" s="3"/>
-    </row>
-    <row r="657">
-      <c r="D657" s="3"/>
-    </row>
-    <row r="658">
-      <c r="D658" s="3"/>
-    </row>
-    <row r="659">
-      <c r="D659" s="3"/>
-    </row>
-    <row r="660">
-      <c r="D660" s="3"/>
-    </row>
-    <row r="661">
-      <c r="D661" s="3"/>
-    </row>
-    <row r="662">
-      <c r="D662" s="3"/>
-    </row>
-    <row r="663">
-      <c r="D663" s="3"/>
-    </row>
-    <row r="664">
-      <c r="D664" s="3"/>
-    </row>
-    <row r="665">
-      <c r="D665" s="3"/>
-    </row>
-    <row r="666">
-      <c r="D666" s="3"/>
-    </row>
-    <row r="667">
-      <c r="D667" s="3"/>
-    </row>
-    <row r="668">
-      <c r="D668" s="3"/>
-    </row>
-    <row r="669">
-      <c r="D669" s="3"/>
-    </row>
-    <row r="670">
-      <c r="D670" s="3"/>
-    </row>
-    <row r="671">
-      <c r="D671" s="3"/>
-    </row>
-    <row r="672">
-      <c r="D672" s="3"/>
-    </row>
-    <row r="673">
-      <c r="D673" s="3"/>
-    </row>
-    <row r="674">
-      <c r="D674" s="3"/>
-    </row>
-    <row r="675">
-      <c r="D675" s="3"/>
-    </row>
-    <row r="676">
-      <c r="D676" s="3"/>
-    </row>
-    <row r="677">
-      <c r="D677" s="3"/>
-    </row>
-    <row r="678">
-      <c r="D678" s="3"/>
-    </row>
-    <row r="679">
-      <c r="D679" s="3"/>
-    </row>
-    <row r="680">
-      <c r="D680" s="3"/>
-    </row>
-    <row r="681">
-      <c r="D681" s="3"/>
-    </row>
-    <row r="682">
-      <c r="D682" s="3"/>
-    </row>
-    <row r="683">
-      <c r="D683" s="3"/>
-    </row>
-    <row r="684">
-      <c r="D684" s="3"/>
-    </row>
-    <row r="685">
-      <c r="D685" s="3"/>
-    </row>
-    <row r="686">
-      <c r="D686" s="3"/>
-    </row>
-    <row r="687">
-      <c r="D687" s="3"/>
-    </row>
-    <row r="688">
-      <c r="D688" s="3"/>
-    </row>
-    <row r="689">
-      <c r="D689" s="3"/>
-    </row>
-    <row r="690">
-      <c r="D690" s="3"/>
-    </row>
-    <row r="691">
-      <c r="D691" s="3"/>
-    </row>
-    <row r="692">
-      <c r="D692" s="3"/>
-    </row>
-    <row r="693">
-      <c r="D693" s="3"/>
-    </row>
-    <row r="694">
-      <c r="D694" s="3"/>
-    </row>
-    <row r="695">
-      <c r="D695" s="3"/>
-    </row>
-    <row r="696">
-      <c r="D696" s="3"/>
-    </row>
-    <row r="697">
-      <c r="D697" s="3"/>
-    </row>
-    <row r="698">
-      <c r="D698" s="3"/>
-    </row>
-    <row r="699">
-      <c r="D699" s="3"/>
-    </row>
-    <row r="700">
-      <c r="D700" s="3"/>
-    </row>
-    <row r="701">
-      <c r="D701" s="3"/>
-    </row>
-    <row r="702">
-      <c r="D702" s="3"/>
-    </row>
-    <row r="703">
-      <c r="D703" s="3"/>
-    </row>
-    <row r="704">
-      <c r="D704" s="3"/>
-    </row>
-    <row r="705">
-      <c r="D705" s="3"/>
-    </row>
-    <row r="706">
-      <c r="D706" s="3"/>
-    </row>
-    <row r="707">
-      <c r="D707" s="3"/>
-    </row>
-    <row r="708">
-      <c r="D708" s="3"/>
-    </row>
-    <row r="709">
-      <c r="D709" s="3"/>
-    </row>
-    <row r="710">
-      <c r="D710" s="3"/>
-    </row>
-    <row r="711">
-      <c r="D711" s="3"/>
-    </row>
-    <row r="712">
-      <c r="D712" s="3"/>
-    </row>
-    <row r="713">
-      <c r="D713" s="3"/>
-    </row>
-    <row r="714">
-      <c r="D714" s="3"/>
-    </row>
-    <row r="715">
-      <c r="D715" s="3"/>
-    </row>
-    <row r="716">
-      <c r="D716" s="3"/>
-    </row>
-    <row r="717">
-      <c r="D717" s="3"/>
-    </row>
-    <row r="718">
-      <c r="D718" s="3"/>
-    </row>
-    <row r="719">
-      <c r="D719" s="3"/>
-    </row>
-    <row r="720">
-      <c r="D720" s="3"/>
-    </row>
-    <row r="721">
-      <c r="D721" s="3"/>
-    </row>
-    <row r="722">
-      <c r="D722" s="3"/>
-    </row>
-    <row r="723">
-      <c r="D723" s="3"/>
-    </row>
-    <row r="724">
-      <c r="D724" s="3"/>
-    </row>
-    <row r="725">
-      <c r="D725" s="3"/>
-    </row>
-    <row r="726">
-      <c r="D726" s="3"/>
-    </row>
-    <row r="727">
-      <c r="D727" s="3"/>
-    </row>
-    <row r="728">
-      <c r="D728" s="3"/>
-    </row>
-    <row r="729">
-      <c r="D729" s="3"/>
-    </row>
-    <row r="730">
-      <c r="D730" s="3"/>
-    </row>
-    <row r="731">
-      <c r="D731" s="3"/>
-    </row>
-    <row r="732">
-      <c r="D732" s="3"/>
-    </row>
-    <row r="733">
-      <c r="D733" s="3"/>
-    </row>
-    <row r="734">
-      <c r="D734" s="3"/>
-    </row>
-    <row r="735">
-      <c r="D735" s="3"/>
-    </row>
-    <row r="736">
-      <c r="D736" s="3"/>
-    </row>
-    <row r="737">
-      <c r="D737" s="3"/>
-    </row>
-    <row r="738">
-      <c r="D738" s="3"/>
-    </row>
-    <row r="739">
-      <c r="D739" s="3"/>
-    </row>
-    <row r="740">
-      <c r="D740" s="3"/>
-    </row>
-    <row r="741">
-      <c r="D741" s="3"/>
-    </row>
-    <row r="742">
-      <c r="D742" s="3"/>
-    </row>
-    <row r="743">
-      <c r="D743" s="3"/>
-    </row>
-    <row r="744">
-      <c r="D744" s="3"/>
-    </row>
-    <row r="745">
-      <c r="D745" s="3"/>
-    </row>
-    <row r="746">
-      <c r="D746" s="3"/>
-    </row>
-    <row r="747">
-      <c r="D747" s="3"/>
-    </row>
-    <row r="748">
-      <c r="D748" s="3"/>
-    </row>
-    <row r="749">
-      <c r="D749" s="3"/>
-    </row>
-    <row r="750">
-      <c r="D750" s="3"/>
-    </row>
-    <row r="751">
-      <c r="D751" s="3"/>
-    </row>
-    <row r="752">
-      <c r="D752" s="3"/>
-    </row>
-    <row r="753">
-      <c r="D753" s="3"/>
-    </row>
-    <row r="754">
-      <c r="D754" s="3"/>
-    </row>
-    <row r="755">
-      <c r="D755" s="3"/>
-    </row>
-    <row r="756">
-      <c r="D756" s="3"/>
-    </row>
-    <row r="757">
-      <c r="D757" s="3"/>
-    </row>
-    <row r="758">
-      <c r="D758" s="3"/>
-    </row>
-    <row r="759">
-      <c r="D759" s="3"/>
-    </row>
-    <row r="760">
-      <c r="D760" s="3"/>
-    </row>
-    <row r="761">
-      <c r="D761" s="3"/>
-    </row>
-    <row r="762">
-      <c r="D762" s="3"/>
-    </row>
-    <row r="763">
-      <c r="D763" s="3"/>
-    </row>
-    <row r="764">
-      <c r="D764" s="3"/>
-    </row>
-    <row r="765">
-      <c r="D765" s="3"/>
-    </row>
-    <row r="766">
-      <c r="D766" s="3"/>
-    </row>
-    <row r="767">
-      <c r="D767" s="3"/>
-    </row>
-    <row r="768">
-      <c r="D768" s="3"/>
-    </row>
-    <row r="769">
-      <c r="D769" s="3"/>
-    </row>
-    <row r="770">
-      <c r="D770" s="3"/>
-    </row>
-    <row r="771">
-      <c r="D771" s="3"/>
-    </row>
-    <row r="772">
-      <c r="D772" s="3"/>
-    </row>
-    <row r="773">
-      <c r="D773" s="3"/>
-    </row>
-    <row r="774">
-      <c r="D774" s="3"/>
-    </row>
-    <row r="775">
-      <c r="D775" s="3"/>
-    </row>
-    <row r="776">
-      <c r="D776" s="3"/>
-    </row>
-    <row r="777">
-      <c r="D777" s="3"/>
-    </row>
-    <row r="778">
-      <c r="D778" s="3"/>
-    </row>
-    <row r="779">
-      <c r="D779" s="3"/>
-    </row>
-    <row r="780">
-      <c r="D780" s="3"/>
-    </row>
-    <row r="781">
-      <c r="D781" s="3"/>
-    </row>
-    <row r="782">
-      <c r="D782" s="3"/>
-    </row>
-    <row r="783">
-      <c r="D783" s="3"/>
-    </row>
-    <row r="784">
-      <c r="D784" s="3"/>
-    </row>
-    <row r="785">
-      <c r="D785" s="3"/>
-    </row>
-    <row r="786">
-      <c r="D786" s="3"/>
-    </row>
-    <row r="787">
-      <c r="D787" s="3"/>
-    </row>
-    <row r="788">
-      <c r="D788" s="3"/>
-    </row>
-    <row r="789">
-      <c r="D789" s="3"/>
-    </row>
-    <row r="790">
-      <c r="D790" s="3"/>
-    </row>
-    <row r="791">
-      <c r="D791" s="3"/>
-    </row>
-    <row r="792">
-      <c r="D792" s="3"/>
-    </row>
-    <row r="793">
-      <c r="D793" s="3"/>
-    </row>
-    <row r="794">
-      <c r="D794" s="3"/>
-    </row>
-    <row r="795">
-      <c r="D795" s="3"/>
-    </row>
-    <row r="796">
-      <c r="D796" s="3"/>
-    </row>
-    <row r="797">
-      <c r="D797" s="3"/>
-    </row>
-    <row r="798">
-      <c r="D798" s="3"/>
-    </row>
-    <row r="799">
-      <c r="D799" s="3"/>
-    </row>
-    <row r="800">
-      <c r="D800" s="3"/>
-    </row>
-    <row r="801">
-      <c r="D801" s="3"/>
-    </row>
-    <row r="802">
-      <c r="D802" s="3"/>
-    </row>
-    <row r="803">
-      <c r="D803" s="3"/>
-    </row>
-    <row r="804">
-      <c r="D804" s="3"/>
-    </row>
-    <row r="805">
-      <c r="D805" s="3"/>
-    </row>
-    <row r="806">
-      <c r="D806" s="3"/>
-    </row>
-    <row r="807">
-      <c r="D807" s="3"/>
-    </row>
-    <row r="808">
-      <c r="D808" s="3"/>
-    </row>
-    <row r="809">
-      <c r="D809" s="3"/>
-    </row>
-    <row r="810">
-      <c r="D810" s="3"/>
-    </row>
-    <row r="811">
-      <c r="D811" s="3"/>
-    </row>
-    <row r="812">
-      <c r="D812" s="3"/>
-    </row>
-    <row r="813">
-      <c r="D813" s="3"/>
-    </row>
-    <row r="814">
-      <c r="D814" s="3"/>
-    </row>
-    <row r="815">
-      <c r="D815" s="3"/>
-    </row>
-    <row r="816">
-      <c r="D816" s="3"/>
-    </row>
-    <row r="817">
-      <c r="D817" s="3"/>
-    </row>
-    <row r="818">
-      <c r="D818" s="3"/>
-    </row>
-    <row r="819">
-      <c r="D819" s="3"/>
-    </row>
-    <row r="820">
-      <c r="D820" s="3"/>
-    </row>
-    <row r="821">
-      <c r="D821" s="3"/>
-    </row>
-    <row r="822">
-      <c r="D822" s="3"/>
-    </row>
-    <row r="823">
-      <c r="D823" s="3"/>
-    </row>
-    <row r="824">
-      <c r="D824" s="3"/>
-    </row>
-    <row r="825">
-      <c r="D825" s="3"/>
-    </row>
-    <row r="826">
-      <c r="D826" s="3"/>
-    </row>
-    <row r="827">
-      <c r="D827" s="3"/>
-    </row>
-    <row r="828">
-      <c r="D828" s="3"/>
-    </row>
-    <row r="829">
-      <c r="D829" s="3"/>
-    </row>
-    <row r="830">
-      <c r="D830" s="3"/>
-    </row>
-    <row r="831">
-      <c r="D831" s="3"/>
-    </row>
-    <row r="832">
-      <c r="D832" s="3"/>
-    </row>
-    <row r="833">
-      <c r="D833" s="3"/>
-    </row>
-    <row r="834">
-      <c r="D834" s="3"/>
-    </row>
-    <row r="835">
-      <c r="D835" s="3"/>
-    </row>
-    <row r="836">
-      <c r="D836" s="3"/>
-    </row>
-    <row r="837">
-      <c r="D837" s="3"/>
-    </row>
-    <row r="838">
-      <c r="D838" s="3"/>
-    </row>
-    <row r="839">
-      <c r="D839" s="3"/>
-    </row>
-    <row r="840">
-      <c r="D840" s="3"/>
-    </row>
-    <row r="841">
-      <c r="D841" s="3"/>
-    </row>
-    <row r="842">
-      <c r="D842" s="3"/>
-    </row>
-    <row r="843">
-      <c r="D843" s="3"/>
-    </row>
-    <row r="844">
-      <c r="D844" s="3"/>
-    </row>
-    <row r="845">
-      <c r="D845" s="3"/>
-    </row>
-    <row r="846">
-      <c r="D846" s="3"/>
-    </row>
-    <row r="847">
-      <c r="D847" s="3"/>
-    </row>
-    <row r="848">
-      <c r="D848" s="3"/>
-    </row>
-    <row r="849">
-      <c r="D849" s="3"/>
-    </row>
-    <row r="850">
-      <c r="D850" s="3"/>
-    </row>
-    <row r="851">
-      <c r="D851" s="3"/>
-    </row>
-    <row r="852">
-      <c r="D852" s="3"/>
-    </row>
-    <row r="853">
-      <c r="D853" s="3"/>
-    </row>
-    <row r="854">
-      <c r="D854" s="3"/>
-    </row>
-    <row r="855">
-      <c r="D855" s="3"/>
-    </row>
-    <row r="856">
-      <c r="D856" s="3"/>
-    </row>
-    <row r="857">
-      <c r="D857" s="3"/>
-    </row>
-    <row r="858">
-      <c r="D858" s="3"/>
-    </row>
-    <row r="859">
-      <c r="D859" s="3"/>
-    </row>
-    <row r="860">
-      <c r="D860" s="3"/>
-    </row>
-    <row r="861">
-      <c r="D861" s="3"/>
-    </row>
-    <row r="862">
-      <c r="D862" s="3"/>
-    </row>
-    <row r="863">
-      <c r="D863" s="3"/>
-    </row>
-    <row r="864">
-      <c r="D864" s="3"/>
-    </row>
-    <row r="865">
-      <c r="D865" s="3"/>
-    </row>
-    <row r="866">
-      <c r="D866" s="3"/>
-    </row>
-    <row r="867">
-      <c r="D867" s="3"/>
-    </row>
-    <row r="868">
-      <c r="D868" s="3"/>
-    </row>
-    <row r="869">
-      <c r="D869" s="3"/>
-    </row>
-    <row r="870">
-      <c r="D870" s="3"/>
-    </row>
-    <row r="871">
-      <c r="D871" s="3"/>
-    </row>
-    <row r="872">
-      <c r="D872" s="3"/>
-    </row>
-    <row r="873">
-      <c r="D873" s="3"/>
-    </row>
-    <row r="874">
-      <c r="D874" s="3"/>
-    </row>
-    <row r="875">
-      <c r="D875" s="3"/>
-    </row>
-    <row r="876">
-      <c r="D876" s="3"/>
-    </row>
-    <row r="877">
-      <c r="D877" s="3"/>
-    </row>
-    <row r="878">
-      <c r="D878" s="3"/>
-    </row>
-    <row r="879">
-      <c r="D879" s="3"/>
-    </row>
-    <row r="880">
-      <c r="D880" s="3"/>
-    </row>
-    <row r="881">
-      <c r="D881" s="3"/>
-    </row>
-    <row r="882">
-      <c r="D882" s="3"/>
-    </row>
-    <row r="883">
-      <c r="D883" s="3"/>
-    </row>
-    <row r="884">
-      <c r="D884" s="3"/>
-    </row>
-    <row r="885">
-      <c r="D885" s="3"/>
-    </row>
-    <row r="886">
-      <c r="D886" s="3"/>
-    </row>
-    <row r="887">
-      <c r="D887" s="3"/>
-    </row>
-    <row r="888">
-      <c r="D888" s="3"/>
-    </row>
-    <row r="889">
-      <c r="D889" s="3"/>
-    </row>
-    <row r="890">
-      <c r="D890" s="3"/>
-    </row>
-    <row r="891">
-      <c r="D891" s="3"/>
-    </row>
-    <row r="892">
-      <c r="D892" s="3"/>
-    </row>
-    <row r="893">
-      <c r="D893" s="3"/>
-    </row>
-    <row r="894">
-      <c r="D894" s="3"/>
-    </row>
-    <row r="895">
-      <c r="D895" s="3"/>
-    </row>
-    <row r="896">
-      <c r="D896" s="3"/>
-    </row>
-    <row r="897">
-      <c r="D897" s="3"/>
-    </row>
-    <row r="898">
-      <c r="D898" s="3"/>
-    </row>
-    <row r="899">
-      <c r="D899" s="3"/>
-    </row>
-    <row r="900">
-      <c r="D900" s="3"/>
-    </row>
-    <row r="901">
-      <c r="D901" s="3"/>
-    </row>
-    <row r="902">
-      <c r="D902" s="3"/>
-    </row>
-    <row r="903">
-      <c r="D903" s="3"/>
-    </row>
-    <row r="904">
-      <c r="D904" s="3"/>
-    </row>
-    <row r="905">
-      <c r="D905" s="3"/>
-    </row>
-    <row r="906">
-      <c r="D906" s="3"/>
-    </row>
-    <row r="907">
-      <c r="D907" s="3"/>
-    </row>
-    <row r="908">
-      <c r="D908" s="3"/>
-    </row>
-    <row r="909">
-      <c r="D909" s="3"/>
-    </row>
-    <row r="910">
-      <c r="D910" s="3"/>
-    </row>
-    <row r="911">
-      <c r="D911" s="3"/>
-    </row>
-    <row r="912">
-      <c r="D912" s="3"/>
-    </row>
-    <row r="913">
-      <c r="D913" s="3"/>
-    </row>
-    <row r="914">
-      <c r="D914" s="3"/>
-    </row>
-    <row r="915">
-      <c r="D915" s="3"/>
-    </row>
-    <row r="916">
-      <c r="D916" s="3"/>
-    </row>
-    <row r="917">
-      <c r="D917" s="3"/>
-    </row>
-    <row r="918">
-      <c r="D918" s="3"/>
-    </row>
-    <row r="919">
-      <c r="D919" s="3"/>
-    </row>
-    <row r="920">
-      <c r="D920" s="3"/>
-    </row>
-    <row r="921">
-      <c r="D921" s="3"/>
-    </row>
-    <row r="922">
-      <c r="D922" s="3"/>
-    </row>
-    <row r="923">
-      <c r="D923" s="3"/>
-    </row>
-    <row r="924">
-      <c r="D924" s="3"/>
-    </row>
-    <row r="925">
-      <c r="D925" s="3"/>
-    </row>
-    <row r="926">
-      <c r="D926" s="3"/>
-    </row>
-    <row r="927">
-      <c r="D927" s="3"/>
-    </row>
-    <row r="928">
-      <c r="D928" s="3"/>
-    </row>
-    <row r="929">
-      <c r="D929" s="3"/>
-    </row>
-    <row r="930">
-      <c r="D930" s="3"/>
-    </row>
-    <row r="931">
-      <c r="D931" s="3"/>
-    </row>
-    <row r="932">
-      <c r="D932" s="3"/>
-    </row>
-    <row r="933">
-      <c r="D933" s="3"/>
-    </row>
-    <row r="934">
-      <c r="D934" s="3"/>
-    </row>
-    <row r="935">
-      <c r="D935" s="3"/>
-    </row>
-    <row r="936">
-      <c r="D936" s="3"/>
-    </row>
-    <row r="937">
-      <c r="D937" s="3"/>
-    </row>
-    <row r="938">
-      <c r="D938" s="3"/>
-    </row>
-    <row r="939">
-      <c r="D939" s="3"/>
-    </row>
-    <row r="940">
-      <c r="D940" s="3"/>
-    </row>
-    <row r="941">
-      <c r="D941" s="3"/>
-    </row>
-    <row r="942">
-      <c r="D942" s="3"/>
-    </row>
-    <row r="943">
-      <c r="D943" s="3"/>
-    </row>
-    <row r="944">
-      <c r="D944" s="3"/>
-    </row>
-    <row r="945">
-      <c r="D945" s="3"/>
-    </row>
-    <row r="946">
-      <c r="D946" s="3"/>
-    </row>
-    <row r="947">
-      <c r="D947" s="3"/>
-    </row>
-    <row r="948">
-      <c r="D948" s="3"/>
-    </row>
-    <row r="949">
-      <c r="D949" s="3"/>
-    </row>
-    <row r="950">
-      <c r="D950" s="3"/>
-    </row>
-    <row r="951">
-      <c r="D951" s="3"/>
-    </row>
-    <row r="952">
-      <c r="D952" s="3"/>
-    </row>
-    <row r="953">
-      <c r="D953" s="3"/>
-    </row>
-    <row r="954">
-      <c r="D954" s="3"/>
-    </row>
-    <row r="955">
-      <c r="D955" s="3"/>
-    </row>
-    <row r="956">
-      <c r="D956" s="3"/>
-    </row>
-    <row r="957">
-      <c r="D957" s="3"/>
-    </row>
-    <row r="958">
-      <c r="D958" s="3"/>
-    </row>
-    <row r="959">
-      <c r="D959" s="3"/>
-    </row>
-    <row r="960">
-      <c r="D960" s="3"/>
-    </row>
-    <row r="961">
-      <c r="D961" s="3"/>
-    </row>
-    <row r="962">
-      <c r="D962" s="3"/>
-    </row>
-    <row r="963">
-      <c r="D963" s="3"/>
-    </row>
-    <row r="964">
-      <c r="D964" s="3"/>
-    </row>
-    <row r="965">
-      <c r="D965" s="3"/>
-    </row>
-    <row r="966">
-      <c r="D966" s="3"/>
-    </row>
-    <row r="967">
-      <c r="D967" s="3"/>
-    </row>
-    <row r="968">
-      <c r="D968" s="3"/>
-    </row>
-    <row r="969">
-      <c r="D969" s="3"/>
-    </row>
-    <row r="970">
-      <c r="D970" s="3"/>
-    </row>
-    <row r="971">
-      <c r="D971" s="3"/>
-    </row>
-    <row r="972">
-      <c r="D972" s="3"/>
-    </row>
-    <row r="973">
-      <c r="D973" s="3"/>
-    </row>
-    <row r="974">
-      <c r="D974" s="3"/>
-    </row>
-    <row r="975">
-      <c r="D975" s="3"/>
-    </row>
-    <row r="976">
-      <c r="D976" s="3"/>
-    </row>
-    <row r="977">
-      <c r="D977" s="3"/>
-    </row>
-    <row r="978">
-      <c r="D978" s="3"/>
-    </row>
-    <row r="979">
-      <c r="D979" s="3"/>
-    </row>
-    <row r="980">
-      <c r="D980" s="3"/>
-    </row>
-    <row r="981">
-      <c r="D981" s="3"/>
-    </row>
-    <row r="982">
-      <c r="D982" s="3"/>
-    </row>
-    <row r="983">
-      <c r="D983" s="3"/>
-    </row>
-    <row r="984">
-      <c r="D984" s="3"/>
-    </row>
-    <row r="985">
-      <c r="D985" s="3"/>
-    </row>
-    <row r="986">
-      <c r="D986" s="3"/>
-    </row>
-    <row r="987">
-      <c r="D987" s="3"/>
-    </row>
-    <row r="988">
-      <c r="D988" s="3"/>
-    </row>
-    <row r="989">
-      <c r="D989" s="3"/>
-    </row>
-    <row r="990">
-      <c r="D990" s="3"/>
-    </row>
-    <row r="991">
-      <c r="D991" s="3"/>
-    </row>
-    <row r="992">
-      <c r="D992" s="3"/>
-    </row>
-    <row r="993">
-      <c r="D993" s="3"/>
-    </row>
-    <row r="994">
-      <c r="D994" s="3"/>
-    </row>
-    <row r="995">
-      <c r="D995" s="3"/>
-    </row>
-    <row r="996">
-      <c r="D996" s="3"/>
-    </row>
-    <row r="997">
-      <c r="D997" s="3"/>
-    </row>
-    <row r="998">
-      <c r="D998" s="3"/>
-    </row>
-    <row r="999">
-      <c r="D999" s="3"/>
-    </row>
-    <row r="1000">
-      <c r="D1000" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$148">
     <sortState ref="A1:F148">
